--- a/results/evaluation_emotions_noisy_0.0.xlsx
+++ b/results/evaluation_emotions_noisy_0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="27">
   <si>
     <t>Base_Learner</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
   </si>
   <si>
     <t>PreOrder__Hamming__None</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,19 +492,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>0.77011</v>
@@ -515,19 +518,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>0.28166</v>
@@ -541,19 +544,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>0.66731</v>
@@ -567,22 +570,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>0.77376</v>
@@ -596,22 +599,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>0.29514</v>
@@ -625,22 +628,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>0.65515</v>
@@ -654,19 +657,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>0.76927</v>
@@ -680,19 +683,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>0.27997</v>
@@ -706,19 +709,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>0.66677</v>
@@ -732,22 +735,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>0.76757</v>
@@ -761,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>0.27995</v>
@@ -790,22 +793,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>0.64049</v>
@@ -819,19 +822,19 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14">
         <v>0.75185</v>
@@ -845,19 +848,19 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15">
         <v>0.26647</v>
@@ -871,19 +874,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <v>0.66134</v>
@@ -897,22 +900,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>0.7554999999999999</v>
@@ -926,22 +929,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18">
         <v>0.28165</v>
@@ -955,22 +958,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19">
         <v>0.6606</v>
@@ -984,19 +987,19 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>0.75269</v>
@@ -1010,19 +1013,19 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <v>0.26816</v>
@@ -1036,19 +1039,19 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22">
         <v>0.66207</v>
@@ -1062,22 +1065,22 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>0.75493</v>
@@ -1091,22 +1094,22 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>0.27827</v>
@@ -1120,28 +1123,688 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25">
         <v>0.65993</v>
       </c>
       <c r="I25">
         <v>0.00298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>0.75268</v>
+      </c>
+      <c r="I26">
+        <v>0.00633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>0.2378</v>
+      </c>
+      <c r="I27">
+        <v>0.01558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>0.6525300000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.00197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>0.76702</v>
+      </c>
+      <c r="I29">
+        <v>0.00663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>0.25972</v>
+      </c>
+      <c r="I30">
+        <v>0.01393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>0.6503100000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.00286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32">
+        <v>0.7524</v>
+      </c>
+      <c r="I32">
+        <v>0.00548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>0.2378</v>
+      </c>
+      <c r="I33">
+        <v>0.01558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>0.65226</v>
+      </c>
+      <c r="I34">
+        <v>0.00247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>0.76505</v>
+      </c>
+      <c r="I35">
+        <v>0.0086</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>0.25636</v>
+      </c>
+      <c r="I36">
+        <v>0.02067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <v>0.64056</v>
+      </c>
+      <c r="I37">
+        <v>0.00664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38">
+        <v>0.73947</v>
+      </c>
+      <c r="I38">
+        <v>0.00827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>0.2108</v>
+      </c>
+      <c r="I39">
+        <v>0.00541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40">
+        <v>0.64612</v>
+      </c>
+      <c r="I40">
+        <v>0.0009700000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41">
+        <v>0.75071</v>
+      </c>
+      <c r="I41">
+        <v>0.00436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <v>0.24619</v>
+      </c>
+      <c r="I42">
+        <v>0.0097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>0.64929</v>
+      </c>
+      <c r="I43">
+        <v>0.00184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44">
+        <v>0.74116</v>
+      </c>
+      <c r="I44">
+        <v>0.00771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>0.21417</v>
+      </c>
+      <c r="I45">
+        <v>0.00542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <v>0.64803</v>
+      </c>
+      <c r="I46">
+        <v>0.00075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47">
+        <v>0.75099</v>
+      </c>
+      <c r="I47">
+        <v>0.00351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48">
+        <v>0.24957</v>
+      </c>
+      <c r="I48">
+        <v>0.00632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>0.64906</v>
+      </c>
+      <c r="I49">
+        <v>0.00207</v>
       </c>
     </row>
   </sheetData>
